--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>83.325586188507955</v>
+        <v>83.325586227694913</v>
       </c>
       <c r="C2">
-        <v>72.34475323630663</v>
+        <v>72.344753272680407</v>
       </c>
       <c r="D2">
-        <v>62.653816132872223</v>
+        <v>62.65381622996</v>
       </c>
       <c r="E2">
-        <v>34.921884588205963</v>
+        <v>34.921884618063828</v>
       </c>
       <c r="F2">
-        <v>69.621745692715265</v>
+        <v>69.621745719162249</v>
       </c>
       <c r="G2">
-        <v>86.350562639177596</v>
+        <v>86.350562630541944</v>
       </c>
       <c r="H2">
-        <v>66.652991559275819</v>
+        <v>66.652991632103365</v>
       </c>
       <c r="I2">
-        <v>69.23529074959437</v>
+        <v>69.235290719676527</v>
       </c>
       <c r="J2">
-        <v>64.719695657495251</v>
+        <v>64.719695720309815</v>
       </c>
       <c r="K2">
-        <v>86.554449809323714</v>
+        <v>86.55444977648223</v>
       </c>
       <c r="L2">
-        <v>93.575496190094213</v>
+        <v>93.575496213967867</v>
       </c>
       <c r="N2">
-        <v>67.042239636835959</v>
+        <v>67.042239638395799</v>
       </c>
       <c r="O2">
-        <v>60.819601213955977</v>
+        <v>60.819601339874538</v>
       </c>
       <c r="P2">
-        <v>57.770881016636565</v>
+        <v>57.770881044136011</v>
       </c>
       <c r="Q2">
-        <v>95.353304659062914</v>
+        <v>95.353304738626903</v>
       </c>
       <c r="S2">
-        <v>45.948899775823918</v>
+        <v>45.948900204614453</v>
       </c>
       <c r="V2">
-        <v>75.857150296343832</v>
+        <v>75.857150408895478</v>
       </c>
       <c r="W2">
-        <v>131.95843659471058</v>
+        <v>131.9584366859763</v>
       </c>
       <c r="X2">
-        <v>88.37116057797239</v>
+        <v>88.37116064546305</v>
       </c>
       <c r="AA2">
-        <v>48.634294702760421</v>
+        <v>48.634294807608256</v>
       </c>
       <c r="AB2">
-        <v>55.633036667819425</v>
+        <v>55.633036852165077</v>
       </c>
       <c r="AC2">
-        <v>90.487331124065804</v>
+        <v>90.487331119400608</v>
       </c>
       <c r="AD2">
-        <v>23.411518763462613</v>
+        <v>23.411518993823332</v>
       </c>
       <c r="AE2">
-        <v>69.091216403642861</v>
+        <v>69.091216411233418</v>
       </c>
       <c r="AF2">
-        <v>59.358298415771458</v>
+        <v>59.358298432940828</v>
       </c>
       <c r="AG2">
-        <v>50.671027383233792</v>
+        <v>50.671027502156598</v>
       </c>
       <c r="AH2">
-        <v>50.596982808471566</v>
+        <v>50.59698295739512</v>
       </c>
       <c r="AI2">
-        <v>59.293452241699129</v>
+        <v>59.29345242799765</v>
       </c>
       <c r="AJ2">
-        <v>66.613594696677268</v>
+        <v>66.613594743463807</v>
       </c>
       <c r="AK2">
-        <v>65.702473369740517</v>
+        <v>65.702473460153726</v>
       </c>
       <c r="AL2">
-        <v>97.823085773877011</v>
+        <v>97.823085860403822</v>
       </c>
       <c r="AM2">
-        <v>51.796265139870791</v>
+        <v>51.796265336243628</v>
       </c>
       <c r="AN2">
-        <v>58.164690567590306</v>
+        <v>58.164690689802136</v>
       </c>
       <c r="AO2">
-        <v>33.21381442337897</v>
+        <v>33.213814579361554</v>
       </c>
       <c r="AQ2">
-        <v>93.023489655679128</v>
+        <v>93.02348982418421</v>
       </c>
       <c r="AR2">
-        <v>40.274535778243866</v>
+        <v>40.274535731654417</v>
       </c>
       <c r="AS2">
-        <v>41.536186081762814</v>
+        <v>41.53618626572846</v>
       </c>
       <c r="AU2">
-        <v>51.702682926170326</v>
+        <v>51.702683027945852</v>
       </c>
       <c r="AV2">
-        <v>73.609914153949475</v>
+        <v>73.609914473026336</v>
       </c>
       <c r="AW2">
-        <v>75.787282837523506</v>
+        <v>75.7872829848869</v>
       </c>
       <c r="AX2">
-        <v>42.809182139185545</v>
+        <v>42.809182225380134</v>
       </c>
       <c r="AY2">
-        <v>26.119640791334504</v>
+        <v>26.11964095240457</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>79.166721190903601</v>
+        <v>79.166721286398527</v>
       </c>
       <c r="C3">
-        <v>74.99524596263339</v>
+        <v>74.995246074372503</v>
       </c>
       <c r="E3">
-        <v>47.91721257168885</v>
+        <v>47.917212623901172</v>
       </c>
       <c r="F3">
-        <v>76.896889173335168</v>
+        <v>76.896889259866612</v>
       </c>
       <c r="G3">
-        <v>58.626536969673246</v>
+        <v>58.626537035934923</v>
       </c>
       <c r="H3">
-        <v>95.254210672262701</v>
+        <v>95.254210700940973</v>
       </c>
       <c r="J3">
-        <v>51.746480172863038</v>
+        <v>51.746480333453803</v>
       </c>
       <c r="K3">
-        <v>-12.728088901425124</v>
+        <v>-12.728088817810324</v>
       </c>
       <c r="L3">
-        <v>55.519525796738975</v>
+        <v>55.519525900643032</v>
       </c>
       <c r="M3">
-        <v>90.628151927190743</v>
+        <v>90.628526238404419</v>
       </c>
       <c r="N3">
-        <v>68.800384382150213</v>
+        <v>68.800384463422191</v>
       </c>
       <c r="P3">
-        <v>52.000766095115857</v>
+        <v>52.000766269351196</v>
       </c>
       <c r="Q3">
-        <v>73.788414554206767</v>
+        <v>73.788414642284124</v>
       </c>
       <c r="R3">
-        <v>95.937842966773928</v>
+        <v>95.93784315044104</v>
       </c>
       <c r="W3">
-        <v>94.550875252132116</v>
+        <v>94.550875452364551</v>
       </c>
       <c r="AA3">
-        <v>42.995838543334649</v>
+        <v>42.995838681198407</v>
       </c>
       <c r="AB3">
-        <v>47.053344593520748</v>
+        <v>47.053344719785947</v>
       </c>
       <c r="AC3">
-        <v>47.690879558320596</v>
+        <v>47.690879584017523</v>
       </c>
       <c r="AD3">
-        <v>34.917309140467189</v>
+        <v>34.917309215270315</v>
       </c>
       <c r="AE3">
-        <v>43.961505480731425</v>
+        <v>43.961505515903696</v>
       </c>
       <c r="AF3">
-        <v>61.747701533203625</v>
+        <v>61.747701611716266</v>
       </c>
       <c r="AG3">
-        <v>71.722716174525928</v>
+        <v>71.722716320738542</v>
       </c>
       <c r="AH3">
-        <v>76.998078562693522</v>
+        <v>76.998078707660639</v>
       </c>
       <c r="AI3">
-        <v>-9.0556342642811654</v>
+        <v>-9.0556342503247294</v>
       </c>
       <c r="AJ3">
-        <v>43.557332166525129</v>
+        <v>43.557332280346749</v>
       </c>
       <c r="AK3">
-        <v>55.882437975250113</v>
+        <v>55.882438052420646</v>
       </c>
       <c r="AL3">
-        <v>63.611726063222477</v>
+        <v>63.611726230395639</v>
       </c>
       <c r="AM3">
-        <v>55.683578005292908</v>
+        <v>55.683578266595809</v>
       </c>
       <c r="AN3">
-        <v>123.48912611641576</v>
+        <v>123.48912622712392</v>
       </c>
       <c r="AO3">
-        <v>40.230292191390419</v>
+        <v>40.230292254152054</v>
       </c>
       <c r="AP3">
-        <v>76.59767933871089</v>
+        <v>76.597679452115955</v>
       </c>
       <c r="AQ3">
-        <v>63.66789425890628</v>
+        <v>63.667894377858261</v>
       </c>
       <c r="AS3">
-        <v>58.378550411497329</v>
+        <v>58.378550437543041</v>
       </c>
       <c r="AT3">
-        <v>39.927896204162714</v>
+        <v>39.927896349968236</v>
       </c>
       <c r="AU3">
-        <v>68.427163786236804</v>
+        <v>68.427163820060144</v>
       </c>
       <c r="AV3">
-        <v>73.779926200311124</v>
+        <v>73.779926323417271</v>
       </c>
       <c r="AW3">
-        <v>76.999952314726414</v>
+        <v>76.999952423284185</v>
       </c>
       <c r="AX3">
-        <v>72.727996927186268</v>
+        <v>72.727997039611353</v>
       </c>
       <c r="AY3">
-        <v>17.232768414507344</v>
+        <v>17.232768558983981</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>83.325586227694913</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>72.344753272680407</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>62.65381622996</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>34.921884618063828</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>69.621745719162249</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>86.350562630541944</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>66.652991632103365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>69.235290719676527</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>64.719695720309815</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>86.55444977648223</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>93.575496213967867</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>67.042239638395799</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>60.819601339874538</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.770881044136011</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>95.353304738626903</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>45.948900204614453</v>
+        <v>67.724148851382409</v>
       </c>
       <c r="V2">
         <v>75.857150408895478</v>
@@ -570,52 +465,55 @@
         <v>88.37116064546305</v>
       </c>
       <c r="AA2">
-        <v>48.634294807608256</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>55.633036852165077</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>90.487331119400608</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>23.411518993823332</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>69.091216411233418</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.358298432940828</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>50.671027502156598</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>50.59698295739512</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>59.29345242799765</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>66.613594743463807</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>65.702473460153726</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>97.823085860403822</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>51.796265336243628</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>58.164690689802136</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>33.213814579361554</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>93.02348982418421</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>40.274535731654417</v>
@@ -640,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>79.166721286398527</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>74.995246074372503</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>47.917212623901172</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>76.896889259866612</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>58.626537035934923</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>95.254210700940973</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>51.746480333453803</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-12.728088817810324</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>55.519525900643032</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>90.628526238404419</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>68.800384463422191</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>52.000766269351196</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>73.788414642284124</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>95.93784315044104</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>94.550875452364551</v>
       </c>
       <c r="AA3">
-        <v>42.995838681198407</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>47.053344719785947</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>47.690879584017523</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>34.917309215270315</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>43.961505515903696</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>61.747701611716266</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>71.722716320738542</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>76.998078707660639</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-9.0556342503247294</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>43.557332280346749</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>55.882438052420646</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>63.611726230395639</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>55.683578266595809</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>123.48912622712392</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>40.230292254152054</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>76.597679452115955</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>63.667894377858261</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>58.378550437543041</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.266353431992854</v>
-      </c>
-      <c r="C2">
-        <v>80.764364990454524</v>
+        <v>60.780889897022746</v>
       </c>
       <c r="D2">
-        <v>51.437312115081511</v>
+        <v>55.357330951788185</v>
       </c>
       <c r="E2">
-        <v>74.779797365305257</v>
+        <v>68.559182613534276</v>
       </c>
       <c r="F2">
         <v>73.086153316606982</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>76.138735381700428</v>
-      </c>
       <c r="C3">
-        <v>65.311456021485185</v>
+        <v>56.628916748618288</v>
+      </c>
+      <c r="D3">
+        <v>56.621218705819487</v>
       </c>
       <c r="E3">
-        <v>22.544924066021537</v>
+        <v>83.562070323499313</v>
       </c>
       <c r="F3">
         <v>76.660863337596112</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.266353431992854</v>
+        <v>88.269966626616949</v>
       </c>
       <c r="C2">
-        <v>80.764364990454524</v>
+        <v>60.780889897022746</v>
       </c>
       <c r="D2">
-        <v>51.437312115081511</v>
+        <v>48.172639143638058</v>
       </c>
       <c r="E2">
-        <v>74.779797365305257</v>
+        <v>55.357330951788185</v>
       </c>
       <c r="F2">
         <v>73.086153316606982</v>
@@ -646,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>76.138735381700428</v>
-      </c>
-      <c r="C3">
-        <v>65.311456021485185</v>
+        <v>70.332433599997032</v>
+      </c>
+      <c r="D3">
+        <v>34.857935414863888</v>
       </c>
       <c r="E3">
-        <v>14.202306802596853</v>
+        <v>56.621218705819487</v>
       </c>
       <c r="F3">
         <v>76.660863337596112</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>91.266353552369793</v>
+      </c>
+      <c r="C2">
+        <v>80.764365090414728</v>
+      </c>
+      <c r="D2">
+        <v>51.437312471273422</v>
+      </c>
+      <c r="E2">
+        <v>74.779797468731545</v>
+      </c>
+      <c r="F2">
+        <v>73.086153401201457</v>
+      </c>
+      <c r="G2">
+        <v>69.474215676666248</v>
+      </c>
+      <c r="H2">
+        <v>85.574992511010734</v>
+      </c>
+      <c r="I2">
+        <v>87.897563233828734</v>
+      </c>
+      <c r="J2">
+        <v>73.123090399422452</v>
+      </c>
+      <c r="K2">
+        <v>86.305968854286249</v>
+      </c>
+      <c r="L2">
+        <v>80.744293244528535</v>
+      </c>
+      <c r="N2">
         <v>88.269966626616949</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>60.780889897022746</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>90.045183511367284</v>
+      </c>
+      <c r="Q2">
+        <v>81.651967712932077</v>
+      </c>
+      <c r="V2">
+        <v>66.689805115772856</v>
+      </c>
+      <c r="W2">
+        <v>66.285624811190459</v>
+      </c>
+      <c r="X2">
+        <v>79.339444228785297</v>
+      </c>
+      <c r="AA2">
+        <v>50.001669159950168</v>
+      </c>
+      <c r="AB2">
+        <v>20.966034849863583</v>
+      </c>
+      <c r="AC2">
+        <v>65.786449358037075</v>
+      </c>
+      <c r="AD2">
+        <v>34.087772667243136</v>
+      </c>
+      <c r="AE2">
+        <v>70.616372055917722</v>
+      </c>
+      <c r="AF2">
+        <v>59.420865540909375</v>
+      </c>
+      <c r="AG2">
+        <v>58.845476696113586</v>
+      </c>
+      <c r="AH2">
+        <v>53.764218586143052</v>
+      </c>
+      <c r="AI2">
+        <v>31.266624718505582</v>
+      </c>
+      <c r="AJ2">
+        <v>70.46611001115447</v>
+      </c>
+      <c r="AK2">
+        <v>71.574492553131094</v>
+      </c>
+      <c r="AL2">
+        <v>77.16966551109094</v>
+      </c>
+      <c r="AM2">
         <v>48.172639143638058</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>55.357330951788185</v>
       </c>
-      <c r="F2">
-        <v>73.086153316606982</v>
-      </c>
-      <c r="G2">
-        <v>69.47421570301745</v>
-      </c>
-      <c r="H2">
-        <v>85.574992335818621</v>
-      </c>
-      <c r="I2">
-        <v>87.897563380822035</v>
-      </c>
-      <c r="J2">
-        <v>73.123090131800154</v>
-      </c>
-      <c r="K2">
-        <v>86.305968966496494</v>
-      </c>
-      <c r="L2">
-        <v>80.744293062801347</v>
-      </c>
-      <c r="N2">
-        <v>88.269966559335018</v>
-      </c>
-      <c r="O2">
-        <v>60.780889566863614</v>
-      </c>
-      <c r="P2">
-        <v>90.045183489150716</v>
-      </c>
-      <c r="Q2">
-        <v>81.651967362787317</v>
-      </c>
-      <c r="V2">
-        <v>66.689804611809095</v>
-      </c>
-      <c r="W2">
-        <v>66.285624592754942</v>
-      </c>
-      <c r="X2">
-        <v>79.339443974262068</v>
-      </c>
-      <c r="AA2">
-        <v>50.001668750856751</v>
-      </c>
-      <c r="AB2">
-        <v>20.966034151240802</v>
-      </c>
-      <c r="AC2">
-        <v>65.786449375042281</v>
-      </c>
-      <c r="AD2">
-        <v>34.087771877346306</v>
-      </c>
-      <c r="AE2">
-        <v>70.616372031139392</v>
-      </c>
-      <c r="AF2">
-        <v>59.420865481612495</v>
-      </c>
-      <c r="AG2">
-        <v>58.845476329340343</v>
-      </c>
-      <c r="AH2">
-        <v>53.764218104520978</v>
-      </c>
-      <c r="AI2">
-        <v>31.266623947163541</v>
-      </c>
-      <c r="AJ2">
-        <v>70.466109870533643</v>
-      </c>
-      <c r="AK2">
-        <v>71.574492233131053</v>
-      </c>
-      <c r="AL2">
-        <v>77.169665181103895</v>
-      </c>
-      <c r="AM2">
-        <v>48.172638537278949</v>
-      </c>
-      <c r="AN2">
-        <v>55.35733050421436</v>
-      </c>
       <c r="AO2">
-        <v>50.438130779706981</v>
+        <v>50.438131394324202</v>
       </c>
       <c r="AQ2">
-        <v>68.559182094562289</v>
+        <v>68.559182613534276</v>
       </c>
       <c r="AR2">
-        <v>78.270742878629676</v>
+        <v>78.270742690206006</v>
       </c>
       <c r="AS2">
-        <v>59.790846869991242</v>
+        <v>59.790847486953822</v>
       </c>
       <c r="AU2">
-        <v>81.499262710662535</v>
+        <v>81.49926312224305</v>
       </c>
       <c r="AV2">
-        <v>39.177255257631536</v>
+        <v>39.177255990718749</v>
       </c>
       <c r="AW2">
-        <v>47.998796208911557</v>
+        <v>47.998796716871396</v>
       </c>
       <c r="AX2">
-        <v>43.533717979341858</v>
+        <v>43.533718305582056</v>
       </c>
       <c r="AY2">
-        <v>44.456527375420485</v>
+        <v>44.456527965093599</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -641,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>76.138735696932812</v>
+      </c>
+      <c r="C3">
+        <v>65.3114563915058</v>
+      </c>
+      <c r="E3">
+        <v>14.202307268972863</v>
+      </c>
+      <c r="F3">
+        <v>76.660863595609868</v>
+      </c>
+      <c r="G3">
+        <v>68.572540067030531</v>
+      </c>
+      <c r="H3">
+        <v>74.754880322456557</v>
+      </c>
+      <c r="J3">
+        <v>54.800413952474536</v>
+      </c>
+      <c r="K3">
+        <v>70.690713261820946</v>
+      </c>
+      <c r="L3">
+        <v>71.489463693110324</v>
+      </c>
+      <c r="M3">
+        <v>73.822583497182677</v>
+      </c>
+      <c r="N3">
         <v>70.332433599997032</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>41.941763407927574</v>
+      </c>
+      <c r="Q3">
+        <v>84.584470167014842</v>
+      </c>
+      <c r="R3">
+        <v>56.628916748618288</v>
+      </c>
+      <c r="W3">
+        <v>65.490521524964009</v>
+      </c>
+      <c r="AA3">
+        <v>41.896288249416166</v>
+      </c>
+      <c r="AB3">
+        <v>46.694143121457465</v>
+      </c>
+      <c r="AC3">
+        <v>66.68805146511599</v>
+      </c>
+      <c r="AD3">
+        <v>45.811230957041786</v>
+      </c>
+      <c r="AE3">
+        <v>59.360219032564267</v>
+      </c>
+      <c r="AF3">
+        <v>43.186757339708102</v>
+      </c>
+      <c r="AG3">
+        <v>69.762344464096245</v>
+      </c>
+      <c r="AH3">
+        <v>66.717725625715445</v>
+      </c>
+      <c r="AI3">
+        <v>53.095334060147103</v>
+      </c>
+      <c r="AJ3">
+        <v>48.264084228970162</v>
+      </c>
+      <c r="AK3">
+        <v>62.80224913489262</v>
+      </c>
+      <c r="AL3">
+        <v>55.698642748031446</v>
+      </c>
+      <c r="AM3">
         <v>34.857935414863888</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>56.621218705819487</v>
       </c>
-      <c r="F3">
-        <v>76.660863337596112</v>
-      </c>
-      <c r="G3">
-        <v>68.572539836039098</v>
-      </c>
-      <c r="H3">
-        <v>74.754880221185076</v>
-      </c>
-      <c r="J3">
-        <v>54.800413323579036</v>
-      </c>
-      <c r="K3">
-        <v>70.690713019288125</v>
-      </c>
-      <c r="L3">
-        <v>71.489463299886779</v>
-      </c>
-      <c r="M3">
-        <v>73.82165907639731</v>
-      </c>
-      <c r="N3">
-        <v>70.332433321343188</v>
-      </c>
-      <c r="P3">
-        <v>41.941762757373787</v>
-      </c>
-      <c r="Q3">
-        <v>84.584469911575113</v>
-      </c>
-      <c r="R3">
-        <v>56.62891613143676</v>
-      </c>
-      <c r="W3">
-        <v>65.490520990797449</v>
-      </c>
-      <c r="AA3">
-        <v>41.89628777455215</v>
-      </c>
-      <c r="AB3">
-        <v>46.69414270182827</v>
-      </c>
-      <c r="AC3">
-        <v>66.688051341001767</v>
-      </c>
-      <c r="AD3">
-        <v>45.811230645259819</v>
-      </c>
-      <c r="AE3">
-        <v>59.360218918584927</v>
-      </c>
-      <c r="AF3">
-        <v>43.18675702207964</v>
-      </c>
-      <c r="AG3">
-        <v>69.762344029228558</v>
-      </c>
-      <c r="AH3">
-        <v>66.717725155280263</v>
-      </c>
-      <c r="AI3">
-        <v>53.095333389361279</v>
-      </c>
-      <c r="AJ3">
-        <v>48.264083795987531</v>
-      </c>
-      <c r="AK3">
-        <v>62.802248823185955</v>
-      </c>
-      <c r="AL3">
-        <v>55.69864217493248</v>
-      </c>
-      <c r="AM3">
-        <v>34.857934671625337</v>
-      </c>
-      <c r="AN3">
-        <v>56.621218322889256</v>
-      </c>
       <c r="AO3">
-        <v>16.534534987741175</v>
+        <v>16.534535236127059</v>
       </c>
       <c r="AP3">
-        <v>53.713134497940196</v>
+        <v>53.713134859690861</v>
       </c>
       <c r="AQ3">
-        <v>83.562070174742871</v>
+        <v>83.562070323499313</v>
       </c>
       <c r="AS3">
-        <v>62.67555965949947</v>
+        <v>62.675559755745645</v>
       </c>
       <c r="AT3">
-        <v>41.969508393750829</v>
+        <v>41.969508881843559</v>
       </c>
       <c r="AU3">
-        <v>75.563203273434127</v>
+        <v>75.563203410365759</v>
       </c>
       <c r="AV3">
-        <v>55.118098262761983</v>
+        <v>55.118098607541754</v>
       </c>
       <c r="AW3">
-        <v>54.238945520423002</v>
+        <v>54.238945914345528</v>
       </c>
       <c r="AX3">
-        <v>69.353828464501092</v>
+        <v>69.35382890600556</v>
       </c>
       <c r="AY3">
-        <v>36.183935443707647</v>
+        <v>36.18393597310849</v>
       </c>
     </row>
   </sheetData>
